--- a/test_labels.xlsx
+++ b/test_labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salatiemann/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salatiemann/Documents/UC Berkeley/Year 3 Sem 2 (Spring 2020)/Tensegrity-HRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD7FC02-5810-604A-B2CB-9737749FF97E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58E81F-FD20-1848-90F6-43A683ED8E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15340" xr2:uid="{9FF3D08C-4F77-0E42-921D-4E87EE9037A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>node</t>
   </si>
@@ -604,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A860FA33-7898-1546-BF1A-8469159E5C7C}">
-  <dimension ref="B2:D79"/>
+  <dimension ref="B2:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -756,40 +756,40 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -844,18 +844,18 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -932,29 +932,29 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1009,18 +1009,18 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1053,40 +1053,40 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1251,29 +1251,29 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -1350,18 +1350,18 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -1372,18 +1372,18 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -1394,18 +1394,18 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -1416,34 +1416,23 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
       </c>
       <c r="D78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79">
         <v>3</v>
       </c>
     </row>
